--- a/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel1/resultados.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/MatrixMul_kernel1/resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>(1/1)</t>
   </si>
@@ -32,9 +32,6 @@
     <t>(16/16)</t>
   </si>
   <si>
-    <t>(32/32)</t>
-  </si>
-  <si>
     <t>(1/128)</t>
   </si>
   <si>
@@ -68,58 +65,22 @@
     <t>Local Size</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>4096</t>
-  </si>
-  <si>
-    <t>8192</t>
+    <t>['(1/1)', '(2/2)']</t>
   </si>
   <si>
     <t>['(2/2)']</t>
   </si>
   <si>
-    <t>['(2/2)', '(4/4)', '(8/8)']</t>
+    <t>['(8/16)']</t>
+  </si>
+  <si>
+    <t>['(4/32)', '(8/16)']</t>
   </si>
   <si>
     <t>['(8/8)']</t>
   </si>
   <si>
-    <t>['(4/4)', '(8/16)']</t>
-  </si>
-  <si>
-    <t>['(4/32)']</t>
+    <t>['(1/128)', '(2/64)', '(4/32)']</t>
   </si>
   <si>
     <t>['(1/128)']</t>
@@ -487,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,43 +503,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.768E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>5.44E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.024000000000001E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="E2" s="1">
-        <v>5.472E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>1.2288E-05</v>
+        <v>1.328E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>6.451200000000001E-05</v>
+        <v>6.5472E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000483392</v>
+        <v>0.000485312</v>
       </c>
       <c r="J2" s="1">
-        <v>0.0038184</v>
+        <v>0.003823712</v>
       </c>
       <c r="K2" s="1">
-        <v>0.032239552</v>
+        <v>0.03221798400000001</v>
       </c>
       <c r="L2" s="1">
-        <v>0.32174064</v>
+        <v>0.31697408</v>
       </c>
       <c r="M2" s="1">
-        <v>2.548995008</v>
+        <v>2.546583872</v>
       </c>
       <c r="N2" s="1">
-        <v>20.799638368</v>
+        <v>20.818964768</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -586,43 +547,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>4.832E-06</v>
       </c>
       <c r="D3" s="1">
         <v>4.096E-06</v>
       </c>
       <c r="E3" s="1">
-        <v>4.384E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="G3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9168E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000111616</v>
+        <v>0.00011264</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000847712</v>
+        <v>0.000856256</v>
       </c>
       <c r="K3" s="1">
-        <v>0.006841344</v>
+        <v>0.006797984000000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.08580518400000001</v>
+        <v>0.08639472000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>0.7810340480000001</v>
+        <v>0.782385152</v>
       </c>
       <c r="N3" s="1">
-        <v>6.345217024</v>
+        <v>6.380693152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -630,40 +591,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>4.256E-06</v>
+        <v>5.28E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="E4" s="1">
-        <v>4.384E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F4" s="1">
-        <v>4.096E-06</v>
+        <v>6.048E-06</v>
       </c>
       <c r="G4" s="1">
-        <v>5.12E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="H4" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>1.0144E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>4.3712E-05</v>
+        <v>4.499200000000001E-05</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000279552</v>
+        <v>0.000284672</v>
       </c>
       <c r="K4" s="1">
-        <v>0.00217696</v>
+        <v>0.002174976</v>
       </c>
       <c r="L4" s="1">
-        <v>0.022260736</v>
+        <v>0.020822016</v>
       </c>
       <c r="M4" s="1">
-        <v>0.242134016</v>
+        <v>0.234943488</v>
       </c>
       <c r="N4" s="1">
-        <v>2.123139104</v>
+        <v>2.133606624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -671,37 +632,37 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4.096E-06</v>
+        <v>5.152E-06</v>
       </c>
       <c r="E5" s="1">
-        <v>4.096E-06</v>
+        <v>5.984000000000001E-06</v>
       </c>
       <c r="F5" s="1">
-        <v>4.352E-06</v>
+        <v>5.28E-06</v>
       </c>
       <c r="G5" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="H5" s="1">
-        <v>9.184E-06</v>
+        <v>1.0048E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>3.6864E-05</v>
+        <v>3.740800000000001E-05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.00025312</v>
+        <v>0.000253952</v>
       </c>
       <c r="K5" s="1">
-        <v>0.001904672</v>
+        <v>0.001904896</v>
       </c>
       <c r="L5" s="1">
-        <v>0.015094784</v>
+        <v>0.015091744</v>
       </c>
       <c r="M5" s="1">
-        <v>0.128364544</v>
+        <v>0.129497888</v>
       </c>
       <c r="N5" s="1">
-        <v>1.047744512</v>
+        <v>1.047204672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -712,63 +673,57 @@
         <v>5.12E-06</v>
       </c>
       <c r="F6" s="1">
-        <v>6.304E-06</v>
+        <v>7.328000000000001E-06</v>
       </c>
       <c r="G6" s="1">
-        <v>8.352000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H6" s="1">
-        <v>1.3312E-05</v>
+        <v>1.4208E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.680000000000001E-05</v>
+        <v>7.7984E-05</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000475136</v>
+        <v>0.000474528</v>
       </c>
       <c r="K6" s="1">
-        <v>0.004558752</v>
+        <v>0.003591456</v>
       </c>
       <c r="L6" s="1">
-        <v>0.030910336</v>
+        <v>0.03090944</v>
       </c>
       <c r="M6" s="1">
-        <v>0.240540128</v>
+        <v>0.24360416</v>
       </c>
       <c r="N6" s="1">
-        <v>2.054876928</v>
+        <v>2.075353248</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>2.2528E-05</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3.9616E-05</v>
-      </c>
       <c r="H7" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="I7" s="1">
-        <v>0.00014416</v>
+        <v>2.048E-05</v>
       </c>
       <c r="J7" s="1">
-        <v>0.00112</v>
+        <v>0.000126976</v>
       </c>
       <c r="K7" s="1">
-        <v>0.007240704000000001</v>
+        <v>0.001336736</v>
       </c>
       <c r="L7" s="1">
-        <v>0.058999808</v>
+        <v>0.013025312</v>
       </c>
       <c r="M7" s="1">
-        <v>0.467942976</v>
+        <v>0.116342816</v>
       </c>
       <c r="N7" s="1">
-        <v>3.739365152</v>
+        <v>0.8986705920000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -776,51 +731,54 @@
         <v>6</v>
       </c>
       <c r="H8" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>2.24E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>1.9424E-05</v>
+        <v>0.000128</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000128</v>
+        <v>0.0009073600000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0.001380352</v>
+        <v>0.009131168</v>
       </c>
       <c r="L8" s="1">
-        <v>0.014247936</v>
+        <v>0.075416576</v>
       </c>
       <c r="M8" s="1">
-        <v>0.11592192</v>
+        <v>2.371745952</v>
       </c>
       <c r="N8" s="1">
-        <v>0.895063872</v>
+        <v>24.651284288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="1">
+        <v>6.144000000000001E-06</v>
+      </c>
       <c r="H9" s="1">
+        <v>8.192000000000001E-06</v>
+      </c>
+      <c r="I9" s="1">
         <v>2.1504E-05</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.000127776</v>
-      </c>
       <c r="J9" s="1">
-        <v>0.000907104</v>
+        <v>0.00012048</v>
       </c>
       <c r="K9" s="1">
-        <v>0.006917088</v>
+        <v>0.0008867840000000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0.078247936</v>
+        <v>0.007532768</v>
       </c>
       <c r="M9" s="1">
-        <v>2.509407232</v>
+        <v>0.06512624</v>
       </c>
       <c r="N9" s="1">
-        <v>24.570461824</v>
+        <v>0.525142016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -828,57 +786,60 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>5.12E-06</v>
+        <v>9.984000000000001E-06</v>
       </c>
       <c r="H10" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>2.256E-05</v>
       </c>
       <c r="I10" s="1">
-        <v>2.0608E-05</v>
+        <v>0.000129952</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000115712</v>
+        <v>0.000915392</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0008905920000000001</v>
+        <v>0.007030688</v>
       </c>
       <c r="L10" s="1">
-        <v>0.008011776</v>
+        <v>0.064863264</v>
       </c>
       <c r="M10" s="1">
-        <v>0.06446444800000001</v>
+        <v>1.05290464</v>
       </c>
       <c r="N10" s="1">
-        <v>0.52400608</v>
+        <v>14.081475104</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="1">
+        <v>5.12E-06</v>
+      </c>
       <c r="G11" s="1">
+        <v>5.92E-06</v>
+      </c>
+      <c r="H11" s="1">
         <v>8.192000000000001E-06</v>
       </c>
-      <c r="H11" s="1">
-        <v>2.2208E-05</v>
-      </c>
       <c r="I11" s="1">
-        <v>0.00012816</v>
+        <v>2.56E-05</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000914208</v>
+        <v>0.000150528</v>
       </c>
       <c r="K11" s="1">
-        <v>0.008011584</v>
+        <v>0.001091392</v>
       </c>
       <c r="L11" s="1">
-        <v>0.06335961600000001</v>
+        <v>0.010406528</v>
       </c>
       <c r="M11" s="1">
-        <v>1.06194624</v>
+        <v>0.076776064</v>
       </c>
       <c r="N11" s="1">
-        <v>13.0738688</v>
+        <v>0.6495210880000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -886,63 +847,66 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>4.16E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="G12" s="1">
-        <v>4.992000000000001E-06</v>
+        <v>9.408E-06</v>
       </c>
       <c r="H12" s="1">
-        <v>7.008E-06</v>
+        <v>2.2304E-05</v>
       </c>
       <c r="I12" s="1">
-        <v>2.4576E-05</v>
+        <v>0.000129792</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000148576</v>
+        <v>0.000915456</v>
       </c>
       <c r="K12" s="1">
-        <v>0.001719968</v>
+        <v>0.007040928</v>
       </c>
       <c r="L12" s="1">
-        <v>0.009415680000000001</v>
+        <v>0.060422816</v>
       </c>
       <c r="M12" s="1">
-        <v>0.07329264000000001</v>
+        <v>0.685677184</v>
       </c>
       <c r="N12" s="1">
-        <v>0.650937344</v>
+        <v>6.858127552</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E13" s="1">
+        <v>5.088E-06</v>
+      </c>
       <c r="F13" s="1">
+        <v>5.12E-06</v>
+      </c>
+      <c r="G13" s="1">
         <v>6.144000000000001E-06</v>
       </c>
-      <c r="G13" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
       <c r="H13" s="1">
-        <v>2.1504E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="I13" s="1">
-        <v>0.000128992</v>
+        <v>3.993600000000001E-05</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000915456</v>
+        <v>0.000258048</v>
       </c>
       <c r="K13" s="1">
-        <v>0.008098880000000001</v>
+        <v>0.001914432</v>
       </c>
       <c r="L13" s="1">
-        <v>0.058445824</v>
+        <v>0.015126528</v>
       </c>
       <c r="M13" s="1">
-        <v>0.6796282560000001</v>
+        <v>0.122903616</v>
       </c>
       <c r="N13" s="1">
-        <v>6.814427968</v>
+        <v>1.07238064</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -950,69 +914,34 @@
         <v>12</v>
       </c>
       <c r="E14" s="1">
-        <v>4.768E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="F14" s="1">
-        <v>4.096E-06</v>
+        <v>6.208000000000001E-06</v>
       </c>
       <c r="G14" s="1">
-        <v>5.792000000000001E-06</v>
+        <v>7.168000000000001E-06</v>
       </c>
       <c r="H14" s="1">
-        <v>9.056000000000001E-06</v>
+        <v>1.3312E-05</v>
       </c>
       <c r="I14" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>7.043200000000001E-05</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000256</v>
+        <v>0.00047616</v>
       </c>
       <c r="K14" s="1">
-        <v>0.001917696</v>
+        <v>0.0055624</v>
       </c>
       <c r="L14" s="1">
-        <v>0.015163104</v>
+        <v>0.028526592</v>
       </c>
       <c r="M14" s="1">
-        <v>0.130770944</v>
+        <v>0.268950528</v>
       </c>
       <c r="N14" s="1">
-        <v>1.067200352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4.384E-06</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.12E-06</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6.144000000000001E-06</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.3216E-05</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6.934400000000001E-05</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.000475136</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.003612672</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.030461888</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.267900928</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2.463229952</v>
+        <v>2.475613184</v>
       </c>
     </row>
   </sheetData>
@@ -1033,195 +962,195 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
+      <c r="B3" s="1">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4.096E-06</v>
+        <v>4.832E-06</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="1">
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>4.096E-06</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="B5" s="1">
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>4.096E-06</v>
+        <v>5.088E-06</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
+      <c r="B6" s="1">
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="B7" s="1">
+        <v>64</v>
       </c>
       <c r="C7" s="1">
-        <v>4.096E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="1">
+        <v>128</v>
       </c>
       <c r="C8" s="1">
-        <v>7.008E-06</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
+      <c r="B9" s="1">
+        <v>256</v>
       </c>
       <c r="C9" s="1">
-        <v>1.9424E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
+      <c r="B10" s="1">
+        <v>512</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000115712</v>
+        <v>0.00012048</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
+      <c r="B11" s="1">
+        <v>1024</v>
       </c>
       <c r="C11" s="1">
-        <v>0.0008905920000000001</v>
+        <v>0.0008867840000000001</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
+      <c r="B12" s="1">
+        <v>2048</v>
       </c>
       <c r="C12" s="1">
-        <v>0.008011776</v>
+        <v>0.007532768</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
+      <c r="B13" s="1">
+        <v>4096</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06446444800000001</v>
+        <v>0.06512624</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
+      <c r="B14" s="1">
+        <v>8192</v>
       </c>
       <c r="C14" s="1">
-        <v>0.52400608</v>
+        <v>0.525142016</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
